--- a/2022-23/choochoo.xlsx
+++ b/2022-23/choochoo.xlsx
@@ -3546,10 +3546,8 @@
       <c r="U40" t="n">
         <v>210.808533151733</v>
       </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="V40" t="n">
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>20502.45274534657</v>
@@ -3625,10 +3623,8 @@
       <c r="U41" t="n">
         <v>955.5714285714286</v>
       </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="V41" t="n">
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>53497</v>
@@ -6938,10 +6934,8 @@
       <c r="U84" t="n">
         <v>300.4254170966632</v>
       </c>
-      <c r="V84" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="V84" t="n">
+        <v>0</v>
       </c>
       <c r="W84" t="n">
         <v>21516.54016547843</v>
@@ -7017,10 +7011,8 @@
       <c r="U85" t="n">
         <v>893.25</v>
       </c>
-      <c r="V85" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="V85" t="n">
+        <v>0</v>
       </c>
       <c r="W85" t="n">
         <v>52945</v>
@@ -10330,10 +10322,8 @@
       <c r="U128" t="n">
         <v>269.2753184014053</v>
       </c>
-      <c r="V128" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="V128" t="n">
+        <v>0</v>
       </c>
       <c r="W128" t="n">
         <v>21902.9016183303</v>
@@ -10409,10 +10399,8 @@
       <c r="U129" t="n">
         <v>953.25</v>
       </c>
-      <c r="V129" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="V129" t="n">
+        <v>0</v>
       </c>
       <c r="W129" t="n">
         <v>52727</v>
@@ -13722,10 +13710,8 @@
       <c r="U172" t="n">
         <v>261.0790159116246</v>
       </c>
-      <c r="V172" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="V172" t="n">
+        <v>0</v>
       </c>
       <c r="W172" t="n">
         <v>22517.44898750968</v>
@@ -13801,10 +13787,8 @@
       <c r="U173" t="n">
         <v>953.25</v>
       </c>
-      <c r="V173" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="V173" t="n">
+        <v>0</v>
       </c>
       <c r="W173" t="n">
         <v>53318</v>
@@ -17114,10 +17098,8 @@
       <c r="U216" t="n">
         <v>247.8125</v>
       </c>
-      <c r="V216" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="V216" t="n">
+        <v>0</v>
       </c>
       <c r="W216" t="n">
         <v>22686.93897628813</v>
@@ -17193,10 +17175,8 @@
       <c r="U217" t="n">
         <v>963</v>
       </c>
-      <c r="V217" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="V217" t="n">
+        <v>0</v>
       </c>
       <c r="W217" t="n">
         <v>53785</v>
@@ -18761,10 +18741,8 @@
           <t>Passengers</t>
         </is>
       </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="E238" t="n">
+        <v>0</v>
       </c>
       <c r="F238" t="n">
         <v>676.7934287336479</v>
@@ -18840,10 +18818,8 @@
           <t>Total Seats</t>
         </is>
       </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="E239" t="n">
+        <v>0</v>
       </c>
       <c r="F239" t="n">
         <v>3042</v>
@@ -20510,10 +20486,8 @@
       <c r="U260" t="n">
         <v>114</v>
       </c>
-      <c r="V260" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="V260" t="n">
+        <v>0</v>
       </c>
       <c r="W260" t="n">
         <v>24163.78590961884</v>
@@ -20589,10 +20563,8 @@
       <c r="U261" t="n">
         <v>424</v>
       </c>
-      <c r="V261" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="V261" t="n">
+        <v>0</v>
       </c>
       <c r="W261" t="n">
         <v>56276</v>
@@ -28984,10 +28956,8 @@
       <c r="U370" t="n">
         <v>278</v>
       </c>
-      <c r="V370" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="V370" t="n">
+        <v>0</v>
       </c>
       <c r="W370" t="n">
         <v>25046.36124112815</v>
@@ -29063,10 +29033,8 @@
       <c r="U371" t="n">
         <v>1987</v>
       </c>
-      <c r="V371" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="V371" t="n">
+        <v>0</v>
       </c>
       <c r="W371" t="n">
         <v>60412</v>
@@ -31093,10 +31061,8 @@
           <t>Passengers</t>
         </is>
       </c>
-      <c r="E398" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="E398" t="n">
+        <v>0</v>
       </c>
       <c r="F398" t="n">
         <v>953.7050349650349</v>
@@ -31172,10 +31138,8 @@
           <t>Total Seats</t>
         </is>
       </c>
-      <c r="E399" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="E399" t="n">
+        <v>0</v>
       </c>
       <c r="F399" t="n">
         <v>3755</v>
@@ -35460,10 +35424,8 @@
       <c r="U454" t="n">
         <v>180.400974025974</v>
       </c>
-      <c r="V454" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="V454" t="n">
+        <v>0</v>
       </c>
       <c r="W454" t="n">
         <v>6152.596394402525</v>
@@ -35539,10 +35501,8 @@
       <c r="U455" t="n">
         <v>3055</v>
       </c>
-      <c r="V455" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="V455" t="n">
+        <v>0</v>
       </c>
       <c r="W455" t="n">
         <v>57296.88267860796</v>
@@ -35615,15 +35575,11 @@
       <c r="T456" t="n">
         <v>88.1666666666667</v>
       </c>
-      <c r="U456" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
-      </c>
-      <c r="V456" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="U456" t="n">
+        <v>0</v>
+      </c>
+      <c r="V456" t="n">
+        <v>0</v>
       </c>
       <c r="W456" t="n">
         <v>2977.086380286381</v>
@@ -35696,15 +35652,11 @@
       <c r="T457" t="n">
         <v>1493</v>
       </c>
-      <c r="U457" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
-      </c>
-      <c r="V457" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="U457" t="n">
+        <v>0</v>
+      </c>
+      <c r="V457" t="n">
+        <v>0</v>
       </c>
       <c r="W457" t="n">
         <v>22938</v>
@@ -36704,10 +36656,8 @@
       <c r="U470" t="n">
         <v>120</v>
       </c>
-      <c r="V470" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="V470" t="n">
+        <v>0</v>
       </c>
       <c r="W470" t="n">
         <v>5992.288837380968</v>
@@ -36783,10 +36733,8 @@
       <c r="U471" t="n">
         <v>2503</v>
       </c>
-      <c r="V471" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="V471" t="n">
+        <v>0</v>
       </c>
       <c r="W471" t="n">
         <v>68838</v>
@@ -37632,10 +37580,8 @@
       <c r="U482" t="n">
         <v>88.5595238095238</v>
       </c>
-      <c r="V482" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="V482" t="n">
+        <v>0</v>
       </c>
       <c r="W482" t="n">
         <v>6060.592814225104</v>
@@ -37711,10 +37657,8 @@
       <c r="U483" t="n">
         <v>2851</v>
       </c>
-      <c r="V483" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="V483" t="n">
+        <v>0</v>
       </c>
       <c r="W483" t="n">
         <v>65487.48877780629</v>
@@ -37739,10 +37683,8 @@
           <t>Passengers</t>
         </is>
       </c>
-      <c r="E484" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="E484" t="n">
+        <v>0</v>
       </c>
       <c r="F484" t="n">
         <v>243.1434640522876</v>
@@ -37792,10 +37734,8 @@
       <c r="U484" t="n">
         <v>389</v>
       </c>
-      <c r="V484" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="V484" t="n">
+        <v>0</v>
       </c>
       <c r="W484" t="n">
         <v>5116.404252313734</v>
@@ -37820,10 +37760,8 @@
           <t>Total Seats</t>
         </is>
       </c>
-      <c r="E485" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="E485" t="n">
+        <v>0</v>
       </c>
       <c r="F485" t="n">
         <v>2442</v>
@@ -37873,10 +37811,8 @@
       <c r="U485" t="n">
         <v>6365</v>
       </c>
-      <c r="V485" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="V485" t="n">
+        <v>0</v>
       </c>
       <c r="W485" t="n">
         <v>43707</v>
@@ -39749,10 +39685,8 @@
           <t>Passengers</t>
         </is>
       </c>
-      <c r="E510" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="E510" t="n">
+        <v>0</v>
       </c>
       <c r="F510" t="n">
         <v>423.1223130115889</v>
@@ -39828,10 +39762,8 @@
           <t>Total Seats</t>
         </is>
       </c>
-      <c r="E511" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="E511" t="n">
+        <v>0</v>
       </c>
       <c r="F511" t="n">
         <v>3698</v>
@@ -41960,10 +41892,8 @@
       <c r="U538" t="n">
         <v>361.2093686174617</v>
       </c>
-      <c r="V538" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="V538" t="n">
+        <v>0</v>
       </c>
       <c r="W538" t="n">
         <v>17484.30706410645</v>
@@ -42039,10 +41969,8 @@
       <c r="U539" t="n">
         <v>4571.509803921568</v>
       </c>
-      <c r="V539" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="V539" t="n">
+        <v>0</v>
       </c>
       <c r="W539" t="n">
         <v>74415.9977824463</v>
@@ -42115,15 +42043,11 @@
       <c r="T540" t="n">
         <v>345</v>
       </c>
-      <c r="U540" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
-      </c>
-      <c r="V540" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="U540" t="n">
+        <v>0</v>
+      </c>
+      <c r="V540" t="n">
+        <v>0</v>
       </c>
       <c r="W540" t="n">
         <v>12132.05837814064</v>
@@ -42196,15 +42120,11 @@
       <c r="T541" t="n">
         <v>1897</v>
       </c>
-      <c r="U541" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
-      </c>
-      <c r="V541" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="U541" t="n">
+        <v>0</v>
+      </c>
+      <c r="V541" t="n">
+        <v>0</v>
       </c>
       <c r="W541" t="n">
         <v>41005</v>
@@ -44077,10 +43997,8 @@
           <t>Passengers</t>
         </is>
       </c>
-      <c r="E566" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="E566" t="n">
+        <v>0</v>
       </c>
       <c r="F566" t="n">
         <v>711.9675876</v>
@@ -44156,10 +44074,8 @@
           <t>Total Seats</t>
         </is>
       </c>
-      <c r="E567" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="E567" t="n">
+        <v>0</v>
       </c>
       <c r="F567" t="n">
         <v>4182</v>
@@ -46288,10 +46204,8 @@
       <c r="U594" t="n">
         <v>290.7501938</v>
       </c>
-      <c r="V594" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="V594" t="n">
+        <v>0</v>
       </c>
       <c r="W594" t="n">
         <v>24426.16696</v>
@@ -46367,10 +46281,8 @@
       <c r="U595" t="n">
         <v>1941</v>
       </c>
-      <c r="V595" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="V595" t="n">
+        <v>0</v>
       </c>
       <c r="W595" t="n">
         <v>66090</v>
@@ -46446,10 +46358,8 @@
       <c r="U596" t="n">
         <v>180.6666667</v>
       </c>
-      <c r="V596" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="V596" t="n">
+        <v>0</v>
       </c>
       <c r="W596" t="n">
         <v>12951.30731</v>
@@ -46525,10 +46435,8 @@
       <c r="U597" t="n">
         <v>1039</v>
       </c>
-      <c r="V597" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="V597" t="n">
+        <v>0</v>
       </c>
       <c r="W597" t="n">
         <v>33843</v>
@@ -48401,10 +48309,8 @@
           <t>Passengers</t>
         </is>
       </c>
-      <c r="E622" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="E622" t="n">
+        <v>0</v>
       </c>
       <c r="F622" t="n">
         <v>929.518256620874</v>
@@ -48480,10 +48386,8 @@
           <t>Total Seats</t>
         </is>
       </c>
-      <c r="E623" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="E623" t="n">
+        <v>0</v>
       </c>
       <c r="F623" t="n">
         <v>4653</v>
@@ -50612,10 +50516,8 @@
       <c r="U650" t="n">
         <v>517.090366566439</v>
       </c>
-      <c r="V650" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="V650" t="n">
+        <v>0</v>
       </c>
       <c r="W650" t="n">
         <v>32313.5591093487</v>
@@ -50691,10 +50593,8 @@
       <c r="U651" t="n">
         <v>2635.93548387097</v>
       </c>
-      <c r="V651" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="V651" t="n">
+        <v>0</v>
       </c>
       <c r="W651" t="n">
         <v>80977.935483871</v>
@@ -50770,10 +50670,8 @@
       <c r="U652" t="n">
         <v>201.25</v>
       </c>
-      <c r="V652" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="V652" t="n">
+        <v>0</v>
       </c>
       <c r="W652" t="n">
         <v>15913.4076800839</v>
@@ -50849,10 +50747,8 @@
       <c r="U653" t="n">
         <v>979</v>
       </c>
-      <c r="V653" t="inlineStr">
-        <is>
-          <t>[x]</t>
-        </is>
+      <c r="V653" t="n">
+        <v>0</v>
       </c>
       <c r="W653" t="n">
         <v>39640</v>
